--- a/FWUsefulPageObjects/TestCases/WebPageHelper/Main.rvl.xlsx
+++ b/FWUsefulPageObjects/TestCases/WebPageHelper/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="149" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="197" uniqueCount="63">
   <si>
     <t>Flow</t>
   </si>
@@ -166,6 +166,42 @@
   </si>
   <si>
     <t>Log into the Library...</t>
+  </si>
+  <si>
+    <t>CheckPageContains</t>
+  </si>
+  <si>
+    <t>textToFind</t>
+  </si>
+  <si>
+    <t>Please login</t>
+  </si>
+  <si>
+    <t>This is not a library</t>
+  </si>
+  <si>
+    <t>AssertFalse</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>It should be a library</t>
+  </si>
+  <si>
+    <t>VerifyPageContains</t>
+  </si>
+  <si>
+    <t>'Please login' is present</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -186,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="170">
+  <borders count="172">
     <border>
       <left/>
       <right/>
@@ -363,11 +399,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -538,6 +576,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="168" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection/>
@@ -878,6 +918,116 @@
     <row r="15">
       <c r="A15" s="165"/>
     </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="170"/>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="171"/>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <tableParts/>
 </worksheet>

--- a/FWUsefulPageObjects/TestCases/WebPageHelper/Main.rvl.xlsx
+++ b/FWUsefulPageObjects/TestCases/WebPageHelper/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="197" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="278" uniqueCount="77">
   <si>
     <t>Flow</t>
   </si>
@@ -202,6 +202,48 @@
   </si>
   <si>
     <t>Close</t>
+  </si>
+  <si>
+    <t>http://www.uitestingplayground.com/upload</t>
+  </si>
+  <si>
+    <t>WebDriver</t>
+  </si>
+  <si>
+    <t>DownloadDriver</t>
+  </si>
+  <si>
+    <t>DoFileDragAndDrop</t>
+  </si>
+  <si>
+    <t>elOrXPath</t>
+  </si>
+  <si>
+    <t>filePath</t>
+  </si>
+  <si>
+    <t>offsetX</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>offsetY</t>
+  </si>
+  <si>
+    <t>//iframe@@@//input[type='file']</t>
+  </si>
+  <si>
+    <t>//iframe@@@//input[@type='file']</t>
+  </si>
+  <si>
+    <t>Common.js</t>
+  </si>
+  <si>
+    <t>README.md</t>
   </si>
 </sst>
 </file>
@@ -222,7 +264,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="172">
+  <borders count="188">
     <border>
       <left/>
       <right/>
@@ -401,11 +443,27 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -578,6 +636,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="169" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="170" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="171" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="172" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,7 +661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection/>
@@ -598,7 +672,7 @@
     <col min="1" max="1" width="5.34375" customWidth="true"/>
     <col min="2" max="2" width="8.4375" customWidth="true"/>
     <col min="3" max="3" width="12.4296875" customWidth="true"/>
-    <col min="4" max="4" width="16.8125" customWidth="true"/>
+    <col min="4" max="4" width="16.7578125" customWidth="true"/>
     <col min="5" max="5" width="12.4296875" customWidth="true"/>
     <col min="6" max="6" width="12.4296875" customWidth="true"/>
     <col min="7" max="7" width="12.4296875" customWidth="true"/>
@@ -1009,22 +1083,85 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="A23" s="172"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="173"/>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="180"/>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="187"/>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="181"/>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
         <v>62</v>
       </c>
-      <c r="E23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
         <v>7</v>
       </c>
     </row>

--- a/FWUsefulPageObjects/TestCases/WebPageHelper/Main.rvl.xlsx
+++ b/FWUsefulPageObjects/TestCases/WebPageHelper/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="278" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="294" uniqueCount="79">
   <si>
     <t>Flow</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>README.md</t>
+  </si>
+  <si>
+    <t>DoTripleClick</t>
+  </si>
+  <si>
+    <t>//h2</t>
   </si>
 </sst>
 </file>
@@ -264,7 +270,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="188">
+  <borders count="192">
     <border>
       <left/>
       <right/>
@@ -459,11 +465,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -652,6 +662,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="191" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,7 +675,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection/>
@@ -672,7 +686,7 @@
     <col min="1" max="1" width="5.34375" customWidth="true"/>
     <col min="2" max="2" width="8.4375" customWidth="true"/>
     <col min="3" max="3" width="12.4296875" customWidth="true"/>
-    <col min="4" max="4" width="16.7578125" customWidth="true"/>
+    <col min="4" max="4" width="16.703125" customWidth="true"/>
     <col min="5" max="5" width="12.4296875" customWidth="true"/>
     <col min="6" max="6" width="12.4296875" customWidth="true"/>
     <col min="7" max="7" width="12.4296875" customWidth="true"/>
@@ -1146,6 +1160,7 @@
       <c r="A27" s="181"/>
     </row>
     <row r="28">
+      <c r="A28" s="191"/>
       <c r="B28" t="s">
         <v>3</v>
       </c>
@@ -1153,15 +1168,62 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="188"/>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="189"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="190"/>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
         <v>62</v>
       </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
         <v>7</v>
       </c>
     </row>
